--- a/biology/Zoologie/Diamant_de_Bicheno/Diamant_de_Bicheno.xlsx
+++ b/biology/Zoologie/Diamant_de_Bicheno/Diamant_de_Bicheno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Diamant de Bicheno (Taeniopygia bichenovii) est une espèce d'oiseaux de la famille des Estrildidae. 
 Son épithète spécifique commémore l'administrateur colonial et botaniste britannique James Ebenezer Bicheno.
@@ -514,7 +526,9 @@
           <t>Répartition et Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu dans les régions côtières tropicales et tempérées du nord et de l'est de l'Australie. On le trouve dans les paysages arides, dans les prairies sèches avec des bois secs et des broussailles, les forêts clairsemées et en bordure des territoires agricoles, mais aussi vers les maisons avec des jardins, des parcs...
 </t>
